--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_조선_중기.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_조선_중기.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1410,14 +1410,352 @@
           <t>명종</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D40" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>08시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>설점수세제 실시</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>인조</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>효종</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>12시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>신속 농가집성 편찬</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>효종</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>12시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>유계 여사제강 저술</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>현종</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>12시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>설점수세제 실시</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>현종</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>효종</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>12시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>이황의 예안향약 시행</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>중종</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>명종</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>12시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>군적수포제 실시</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>현종</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>중종</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>12시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>사량진 왜변</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>명종</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>중종</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>12시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>임신약조 체결</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>명종</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>중종</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>12시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>비변사 상설기구화</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>효종</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>명종</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>12시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>이륜행실도 간행</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>중종</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>12시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>백운동서원 소수서원으로 사액</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>선조</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>명종</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>12시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>정묘호란 발발</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>광해군</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>인조</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>12시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>을묘왜변</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>효종</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>명종</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>12시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>시헌력 사용</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>현종</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>효종</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>20221220</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>08시 07분</t>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>12시 55분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_조선_중기.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_조선_중기.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1748,14 +1748,506 @@
           <t>효종</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>20221220</t>
-        </is>
+      <c r="D54" t="n">
+        <v>20221220</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>12시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>군적수포제 실시</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>효종</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>중종</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>23시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>설점수세제 실시</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1571 : 선조</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1651 : 효종</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>23시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>군적수포제 실시</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1518 : 중종</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1541 : 중종</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>23시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>유계 여사제강 저술</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1589 : 선조</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1667 : 현종</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>23시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>유형원 동국여지지 제작</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1656 : 효종</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>23시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>백운동서원 소수서원으로 사액</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1555 : 명종</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1550 : 명종</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>23시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>이륜행실도 간행</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1518 : 중종</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>23시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>유형원 동국여지지 제작</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1655 : 효종</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1656 : 효종</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>00시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>이륜행실도 간행</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1517 : 중종</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1518 : 중종</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>00시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>이륜행실도 간행</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1542 : 중종</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1518 : 중종</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>00시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>백운동서원 소수서원으로 사액</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1527 : 중종</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1550 : 명종</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>00시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>속오군체제로 개편</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1593 : 선조</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1594 : 선조</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>00시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>시헌력 사용</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1530 : 중종</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1653 : 효종</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>00시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>모문룡의 가도 사건</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1614 : 광해군</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1622 : 광해군</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>00시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>신증동국여지승람 편찬</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1550 : 명종</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1530 : 중종</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>00시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>김시민 진주대첩</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1593 : 선조</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>1592 : 선조</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>00시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>이황의 예안향약 시행</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1618 : 광해군</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1556 : 명종</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>00시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>기유약조</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1656 : 효종</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1609 : 광해군</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>00시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>벨테브레 제주도 표류</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1656 : 효종</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1627 : 인조</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>00시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>직전법 폐지</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1527 : 중종</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>1556 : 명종</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>20221221</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>00시 40분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_조선_중기.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_조선_중기.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2240,14 +2240,364 @@
           <t>1556 : 명종</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D74" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>00시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>이황의 예안향약 시행</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1545 : 명종</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1556 : 명종</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>06시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>이이 기자실기 저술</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1577 : 선조</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>1580 : 선조</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>06시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>경희궁 건립</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1614 : 광해군</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1623 : 광해군</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>06시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>유계 여사제강 저술</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1656 : 효종</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1667 : 현종</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>06시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>최세진 훈몽자회 편찬</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1530 : 중종</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1527 : 중종</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>06시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>선조 한양 환도</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1596 : 선조</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1593 : 선조</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>06시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>제승방략 체제 실시</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1544 : 중종</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1555 : 명종</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>06시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>신속 농가집성 편찬</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1618 : 광해군</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>1655 : 효종</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>06시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>유계 여사제강 저술</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1542 : 중종</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>1667 : 현종</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>07시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>백운동서원 소수서원으로 사액</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1517 : 중종</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>1550 : 명종</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>07시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>이륜행실도 간행</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1527 : 중종</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>1518 : 중종</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>07시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>이황의 예안향약 시행</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>1556 : 명종</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>07시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>모문룡의 가도 사건</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1623 : 광해군</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1622 : 광해군</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>07시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>정유재란 발발</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1596 : 선조</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>1597 : 선조</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>20221221</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>00시 40분</t>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>07시 19분</t>
         </is>
       </c>
     </row>
